--- a/entry_log.xlsx
+++ b/entry_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
@@ -496,6 +496,91 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vasanth Kumar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-01-29 04:36:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-01-29 12:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sakthivel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-01-29 14:12:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Vasanth Kumar</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-01-30 07:59:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sakthivel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-01-30 08:00:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
